--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H2">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N2">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O2">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P2">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q2">
-        <v>78.18925005136001</v>
+        <v>112.06799902739</v>
       </c>
       <c r="R2">
-        <v>703.70325046224</v>
+        <v>1008.61199124651</v>
       </c>
       <c r="S2">
-        <v>0.1614593217677346</v>
+        <v>0.1866717385297607</v>
       </c>
       <c r="T2">
-        <v>0.1614593217677346</v>
+        <v>0.1866717385297607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H3">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.048748</v>
       </c>
       <c r="O3">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P3">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q3">
-        <v>84.00602592662</v>
+        <v>119.2209355263867</v>
       </c>
       <c r="R3">
-        <v>756.05423333958</v>
+        <v>1072.98841973748</v>
       </c>
       <c r="S3">
-        <v>0.1734708538783187</v>
+        <v>0.19858638948676</v>
       </c>
       <c r="T3">
-        <v>0.1734708538783187</v>
+        <v>0.19858638948676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H4">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N4">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O4">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P4">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q4">
-        <v>27.96259785172</v>
+        <v>48.08147878781222</v>
       </c>
       <c r="R4">
-        <v>251.66338066548</v>
+        <v>432.73330909031</v>
       </c>
       <c r="S4">
-        <v>0.05774223542286162</v>
+        <v>0.08008935034352732</v>
       </c>
       <c r="T4">
-        <v>0.05774223542286162</v>
+        <v>0.08008935034352734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H5">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I5">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J5">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N5">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O5">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P5">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q5">
-        <v>53.57925018076167</v>
+        <v>77.3870179299611</v>
       </c>
       <c r="R5">
-        <v>482.213251626855</v>
+        <v>696.48316136965</v>
       </c>
       <c r="S5">
-        <v>0.110640137734114</v>
+        <v>0.1289036058642301</v>
       </c>
       <c r="T5">
-        <v>0.110640137734114</v>
+        <v>0.1289036058642301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H6">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I6">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J6">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N6">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O6">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P6">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q6">
-        <v>27.07006259340833</v>
+        <v>33.36974874244223</v>
       </c>
       <c r="R6">
-        <v>243.630563340675</v>
+        <v>300.3277386819801</v>
       </c>
       <c r="S6">
-        <v>0.05589916700404279</v>
+        <v>0.0555840120829724</v>
       </c>
       <c r="T6">
-        <v>0.05589916700404278</v>
+        <v>0.05558401208297241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N7">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O7">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P7">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q7">
-        <v>56.92307819869867</v>
+        <v>57.488484738328</v>
       </c>
       <c r="R7">
-        <v>512.307703788288</v>
+        <v>517.396362644952</v>
       </c>
       <c r="S7">
-        <v>0.1175450793153342</v>
+        <v>0.0957586062451465</v>
       </c>
       <c r="T7">
-        <v>0.1175450793153342</v>
+        <v>0.09575860624514651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.948152</v>
       </c>
       <c r="I8">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J8">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.048748</v>
       </c>
       <c r="O8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P8">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q8">
         <v>61.15778805707733</v>
@@ -948,10 +948,10 @@
         <v>550.4200925136961</v>
       </c>
       <c r="S8">
-        <v>0.1262896750387595</v>
+        <v>0.1018705671585965</v>
       </c>
       <c r="T8">
-        <v>0.1262896750387595</v>
+        <v>0.1018705671585965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.948152</v>
       </c>
       <c r="I9">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J9">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N9">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O9">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P9">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q9">
-        <v>20.35723763953067</v>
+        <v>24.66476945674577</v>
       </c>
       <c r="R9">
-        <v>183.215138755776</v>
+        <v>221.982925110712</v>
       </c>
       <c r="S9">
-        <v>0.04203731050220054</v>
+        <v>0.04108412245141613</v>
       </c>
       <c r="T9">
-        <v>0.04203731050220054</v>
+        <v>0.04108412245141613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.948152</v>
       </c>
       <c r="I10">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J10">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N10">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O10">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P10">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q10">
-        <v>39.00658780924178</v>
+        <v>39.69788376540889</v>
       </c>
       <c r="R10">
-        <v>351.059290283176</v>
+        <v>357.28095388868</v>
       </c>
       <c r="S10">
-        <v>0.08054786569786544</v>
+        <v>0.06612479068739401</v>
       </c>
       <c r="T10">
-        <v>0.08054786569786543</v>
+        <v>0.06612479068739402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.948152</v>
       </c>
       <c r="I11">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J11">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N11">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O11">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P11">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q11">
-        <v>19.70745708439556</v>
+        <v>17.11796684112178</v>
       </c>
       <c r="R11">
-        <v>177.36711375956</v>
+        <v>154.061701570096</v>
       </c>
       <c r="S11">
-        <v>0.04069552595175324</v>
+        <v>0.02851340844897227</v>
       </c>
       <c r="T11">
-        <v>0.04069552595175323</v>
+        <v>0.02851340844897227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H12">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I12">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J12">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.012448000000001</v>
+        <v>9.101967</v>
       </c>
       <c r="N12">
-        <v>27.037344</v>
+        <v>27.305901</v>
       </c>
       <c r="O12">
-        <v>0.2887266436017198</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="P12">
-        <v>0.2887266436017197</v>
+        <v>0.2872601673725235</v>
       </c>
       <c r="Q12">
-        <v>4.708150901589334</v>
+        <v>2.899574185333</v>
       </c>
       <c r="R12">
-        <v>42.373358114304</v>
+        <v>26.096167667997</v>
       </c>
       <c r="S12">
-        <v>0.009722242518650937</v>
+        <v>0.004829822597616263</v>
       </c>
       <c r="T12">
-        <v>0.009722242518650935</v>
+        <v>0.004829822597616263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H13">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I13">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J13">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.048748</v>
       </c>
       <c r="O13">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="P13">
-        <v>0.3102060435696705</v>
+        <v>0.3055950511371977</v>
       </c>
       <c r="Q13">
-        <v>5.058406960618666</v>
+        <v>3.084644590817334</v>
       </c>
       <c r="R13">
-        <v>45.525662645568</v>
+        <v>27.761801317356</v>
       </c>
       <c r="S13">
-        <v>0.01044551465259222</v>
+        <v>0.005138094491841169</v>
       </c>
       <c r="T13">
-        <v>0.01044551465259222</v>
+        <v>0.005138094491841169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H14">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I14">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J14">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.223096</v>
+        <v>3.905093666666666</v>
       </c>
       <c r="N14">
-        <v>9.669288</v>
+        <v>11.715281</v>
       </c>
       <c r="O14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="P14">
-        <v>0.1032564837085472</v>
+        <v>0.1232456523180152</v>
       </c>
       <c r="Q14">
-        <v>1.683762540245333</v>
+        <v>1.244028767317444</v>
       </c>
       <c r="R14">
-        <v>15.153862862208</v>
+        <v>11.196258905857</v>
       </c>
       <c r="S14">
-        <v>0.003476937783484992</v>
+        <v>0.002072179523071751</v>
       </c>
       <c r="T14">
-        <v>0.003476937783484992</v>
+        <v>0.002072179523071751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H15">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I15">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J15">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.175787666666667</v>
+        <v>6.285238333333333</v>
       </c>
       <c r="N15">
-        <v>18.527363</v>
+        <v>18.855715</v>
       </c>
       <c r="O15">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="P15">
-        <v>0.1978501783969864</v>
+        <v>0.1983635642284282</v>
       </c>
       <c r="Q15">
-        <v>3.226264414600889</v>
+        <v>2.002261139817222</v>
       </c>
       <c r="R15">
-        <v>29.036379731408</v>
+        <v>18.020350258355</v>
       </c>
       <c r="S15">
-        <v>0.006662174965006925</v>
+        <v>0.00333516767680407</v>
       </c>
       <c r="T15">
-        <v>0.006662174965006924</v>
+        <v>0.00333516767680407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H16">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I16">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J16">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.120218333333334</v>
+        <v>2.710232666666667</v>
       </c>
       <c r="N16">
-        <v>9.360655000000001</v>
+        <v>8.130698000000001</v>
       </c>
       <c r="O16">
-        <v>0.09996065072307607</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="P16">
-        <v>0.09996065072307606</v>
+        <v>0.08553556494383548</v>
       </c>
       <c r="Q16">
-        <v>1.630018698497778</v>
+        <v>0.8633870762784446</v>
       </c>
       <c r="R16">
-        <v>14.67016828648</v>
+        <v>7.770483686506001</v>
       </c>
       <c r="S16">
-        <v>0.003365957767280044</v>
+        <v>0.001438144411890798</v>
       </c>
       <c r="T16">
-        <v>0.003365957767280043</v>
+        <v>0.001438144411890798</v>
       </c>
     </row>
   </sheetData>
